--- a/data/titles.xlsx
+++ b/data/titles.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhouc\eclipse-workspace\web-automation-framework-team03\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhouc\Desktop\final framework\Final-web-automation-framework-team-3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFD4F28-41F0-423B-86E8-3F07F2BF3AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887DCDA4-9C59-4D1B-9BD9-A432F2DD8389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test data" sheetId="1" r:id="rId1"/>
+    <sheet name="pay info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>lhoucoutinho@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Email</t>
   </si>
@@ -37,16 +35,81 @@
   </si>
   <si>
     <t>Houhouhou8</t>
+  </si>
+  <si>
+    <t>houfantas@gmail.com</t>
+  </si>
+  <si>
+    <t>ouhsqduo@gmail.com</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   usa</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>cardNum</t>
+  </si>
+  <si>
+    <t>expDate</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>20 st apt2</t>
+  </si>
+  <si>
+    <t>astoria</t>
+  </si>
+  <si>
+    <t>11105</t>
+  </si>
+  <si>
+    <t>dec-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,13 +132,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -368,21 +436,107 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D5619A55-4B82-436F-A5B4-D0710BDE4776}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{332DFA6D-6C6D-47D5-9149-5C0A8695312D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C714F35-5E9F-472F-8A34-D9A3D976F36A}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>